--- a/biology/Zoologie/Cassique_à_dos_rouge/Cassique_à_dos_rouge.xlsx
+++ b/biology/Zoologie/Cassique_à_dos_rouge/Cassique_à_dos_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_dos_rouge</t>
+          <t>Cassique_à_dos_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacicus uropygialis
 Le Cassique à dos rouge (Cacicus uropygialis) est une espèce de passereaux de la famille des ictéridés.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_dos_rouge</t>
+          <t>Cassique_à_dos_rouge</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique à dos rouge se retrouve dans les zones subtropicales entre 1300 et 2300 mètres au Venezuela, en Colombie, en Équateur et au Pérou.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_dos_rouge</t>
+          <t>Cassique_à_dos_rouge</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cassique fréquente les forêts montagneuses clairsemées. Il affectionne particulièrement les forêts sur les pentes. Il s’aventure également dans les clairières où se trouvent des arbres à fleurs ou couverts d’épiphytes.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_dos_rouge</t>
+          <t>Cassique_à_dos_rouge</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Comportement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Cassique à dos rouge s’observe généralement en couple ou en petit groupe de moins de six individus.  Il se joint parfois aux volées mixtes d’alimentation avec des espèces des genres Cyanolyca ou Cyanocorax ou encore des Thraupidae.  Il préfère rechercher sa nourriture dans la canopée, mais il s’observe aussi dans les strates inférieures de la forêt.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cassique_%C3%A0_dos_rouge</t>
+          <t>Cassique_à_dos_rouge</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Certaines classifications considèrent le Cassique à dos rouge comme une sous-espèce du Cassique à bec mince auquel cas il porte le nom C. u. uropygialis.
 D'après Alan P. Peterson, il existe les sous-espèces suivantes :
